--- a/game/Resources/DB/Excel/cellLevel.xlsx
+++ b/game/Resources/DB/Excel/cellLevel.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="cell" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G3" s="1">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -521,10 +521,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="1">
-        <v>960</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -544,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G5" s="1">
-        <v>720</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -567,10 +567,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G6" s="1">
-        <v>480</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/game/Resources/DB/Excel/cellLevel.xlsx
+++ b/game/Resources/DB/Excel/cellLevel.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
